--- a/stats.xlsx
+++ b/stats.xlsx
@@ -167,7 +167,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26942388797706368"/>
+          <c:x val="0.26942388797706379"/>
           <c:y val="6.6985645933014371E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -247,8 +247,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="88916352"/>
-        <c:axId val="88918272"/>
+        <c:axId val="82353536"/>
+        <c:axId val="82376192"/>
       </c:barChart>
       <c:stockChart>
         <c:ser>
@@ -296,7 +296,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -413,7 +412,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -560,11 +558,11 @@
           </c:val>
         </c:ser>
         <c:hiLowLines/>
-        <c:axId val="58943360"/>
-        <c:axId val="58941824"/>
+        <c:axId val="52978816"/>
+        <c:axId val="82378112"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="88916352"/>
+        <c:axId val="82353536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -585,18 +583,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88918272"/>
+        <c:crossAx val="82376192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88918272"/>
+        <c:axId val="82376192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,16 +615,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88916352"/>
+        <c:crossAx val="82353536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58941824"/>
+        <c:axId val="82378112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,12 +631,12 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="58943360"/>
+        <c:crossAx val="52978816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="58943360"/>
+        <c:axId val="52978816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +644,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="58941824"/>
+        <c:crossAx val="82378112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -665,14 +661,13 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -699,7 +694,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -788,11 +782,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="88939136"/>
-        <c:axId val="88949504"/>
+        <c:axId val="83437440"/>
+        <c:axId val="83443712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88939136"/>
+        <c:axId val="83437440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,18 +807,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88949504"/>
+        <c:crossAx val="83443712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88949504"/>
+        <c:axId val="83443712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,11 +839,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88939136"/>
+        <c:crossAx val="83437440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -859,7 +851,172 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="5"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>thruput</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="55063680"/>
+        <c:axId val="57060736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="55063680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Users</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57060736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="57060736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of messages sent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55063680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -914,6 +1071,41 @@
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1963,7 +2155,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1984,30 +2176,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
         <v>100</v>
-      </c>
-      <c r="B2">
-        <v>500</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
-        <v>2155</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3">
-        <v>863</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2026,33 +2218,37 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5">
-        <v>805</v>
+        <v>863</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
       <c r="D6">
-        <v>682</v>
+        <v>2155</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D6">
+    <sortCondition ref="A2:A6"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>